--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c201_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c201_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -564,10 +576,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -611,28 +623,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="2">
+      <c r="A17" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D17" t="s" s="2">
+      <c r="D17" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -657,28 +669,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="2">
+      <c r="I19" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -998,10 +1010,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="J30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="K30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1045,28 +1057,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="2">
+      <c r="A32" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="2">
+      <c r="C32" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D32" t="s" s="2">
+      <c r="D32" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1091,28 +1103,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="2">
+      <c r="C34" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="2">
+      <c r="D34" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="2">
+      <c r="I34" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1287,10 +1299,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="J40" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="K40" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1334,28 +1346,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="2">
+      <c r="A42" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="2">
+      <c r="C42" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D42" t="s" s="2">
+      <c r="D42" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1380,28 +1392,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="2">
+      <c r="C44" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="2">
+      <c r="D44" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="2">
+      <c r="I44" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1576,10 +1588,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="2" t="s">
+      <c r="J50" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="K50" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1623,28 +1635,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="2">
+      <c r="A52" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="2">
+      <c r="C52" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D52" t="s" s="2">
+      <c r="D52" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1669,28 +1681,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="2">
+      <c r="C54" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="2">
+      <c r="D54" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="2">
+      <c r="I54" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1894,10 +1906,10 @@
       <c r="I61">
         <f>((C61-C60)^2+(D61- D60)^2)^.5</f>
       </c>
-      <c r="J61" s="2" t="s">
+      <c r="J61" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K61" s="2" t="s">
+      <c r="K61" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L61" t="n">
@@ -1941,28 +1953,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="2">
+      <c r="A63" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C63" t="s" s="2">
+      <c r="C63" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D63" t="s" s="2">
+      <c r="D63" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1987,28 +1999,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C65" t="s" s="2">
+      <c r="C65" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D65" t="s" s="2">
+      <c r="D65" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I65" t="s" s="2">
+      <c r="I65" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2212,10 +2224,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="2" t="s">
+      <c r="J72" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K72" s="2" t="s">
+      <c r="K72" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2259,28 +2271,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="2">
+      <c r="A74" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="2">
+      <c r="C74" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D74" t="s" s="2">
+      <c r="D74" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2305,28 +2317,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="2">
+      <c r="C76" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="2">
+      <c r="D76" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="2">
+      <c r="I76" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2530,10 +2542,10 @@
       <c r="I83">
         <f>((C83-C82)^2+(D83- D82)^2)^.5</f>
       </c>
-      <c r="J83" s="2" t="s">
+      <c r="J83" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K83" s="2" t="s">
+      <c r="K83" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L83" t="n">
@@ -2577,28 +2589,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="2">
+      <c r="A85" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B85" t="s" s="2">
+      <c r="B85" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C85" t="s" s="2">
+      <c r="C85" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D85" t="s" s="2">
+      <c r="D85" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E85" t="s" s="2">
+      <c r="E85" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G85" t="s" s="2">
+      <c r="G85" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H85" t="s" s="2">
+      <c r="H85" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2623,28 +2635,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C87" t="s" s="2">
+      <c r="C87" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D87" t="s" s="2">
+      <c r="D87" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I87" t="s" s="2">
+      <c r="I87" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2761,10 +2773,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="2" t="s">
+      <c r="J91" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K91" s="2" t="s">
+      <c r="K91" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2808,28 +2820,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="2">
+      <c r="A93" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="2">
+      <c r="C93" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D93" t="s" s="2">
+      <c r="D93" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2854,28 +2866,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="2">
+      <c r="C95" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="2">
+      <c r="D95" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="2">
+      <c r="I95" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3021,10 +3033,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="2" t="s">
+      <c r="J100" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K100" s="2" t="s">
+      <c r="K100" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3068,28 +3080,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="2">
+      <c r="A102" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3114,28 +3126,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="2">
+      <c r="C104" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="2">
+      <c r="D104" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="2">
+      <c r="I104" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3339,10 +3351,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="2" t="s">
+      <c r="J111" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K111" s="2" t="s">
+      <c r="K111" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3386,28 +3398,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="2">
+      <c r="A113" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="2">
+      <c r="C113" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D113" t="s" s="2">
+      <c r="D113" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3432,28 +3444,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="2">
+      <c r="C115" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="2">
+      <c r="D115" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="2">
+      <c r="I115" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3657,10 +3669,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="2" t="s">
+      <c r="J122" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K122" s="2" t="s">
+      <c r="K122" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3704,28 +3716,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="2">
+      <c r="A124" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="2">
+      <c r="C124" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D124" t="s" s="2">
+      <c r="D124" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3750,28 +3762,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="C126" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="2">
+      <c r="D126" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="2">
+      <c r="I126" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4033,10 +4045,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="2" t="s">
+      <c r="J135" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K135" s="2" t="s">
+      <c r="K135" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4080,28 +4092,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="2">
+      <c r="A137" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4126,28 +4138,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="2">
+      <c r="I139" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4322,10 +4334,10 @@
       <c r="I145">
         <f>((C145-C144)^2+(D145- D144)^2)^.5</f>
       </c>
-      <c r="J145" s="2" t="s">
+      <c r="J145" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K145" s="2" t="s">
+      <c r="K145" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L145" t="n">
@@ -4369,28 +4381,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="2">
+      <c r="A147" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C147" t="s" s="2">
+      <c r="C147" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D147" t="s" s="2">
+      <c r="D147" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4415,28 +4427,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C149" t="s" s="2">
+      <c r="C149" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D149" t="s" s="2">
+      <c r="D149" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I149" t="s" s="2">
+      <c r="I149" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4582,10 +4594,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="2" t="s">
+      <c r="J154" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K154" s="2" t="s">
+      <c r="K154" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4629,28 +4641,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="2">
+      <c r="A156" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="2">
+      <c r="C156" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D156" t="s" s="2">
+      <c r="D156" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4675,28 +4687,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="C158" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="2">
+      <c r="D158" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="2">
+      <c r="I158" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4871,10 +4883,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="2" t="s">
+      <c r="J164" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K164" s="2" t="s">
+      <c r="K164" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4918,28 +4930,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="2">
+      <c r="A166" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4964,28 +4976,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="2">
+      <c r="I168" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5131,10 +5143,10 @@
       <c r="I173">
         <f>((C173-C172)^2+(D173- D172)^2)^.5</f>
       </c>
-      <c r="J173" s="2" t="s">
+      <c r="J173" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K173" s="2" t="s">
+      <c r="K173" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L173" t="n">
@@ -5178,28 +5190,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s" s="2">
+      <c r="A175" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C175" t="s" s="2">
+      <c r="C175" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D175" t="s" s="2">
+      <c r="D175" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5224,28 +5236,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C177" t="s" s="2">
+      <c r="C177" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D177" t="s" s="2">
+      <c r="D177" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I177" t="s" s="2">
+      <c r="I177" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5333,10 +5345,10 @@
       <c r="I180">
         <f>((C180-C179)^2+(D180- D179)^2)^.5</f>
       </c>
-      <c r="J180" s="2" t="s">
+      <c r="J180" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K180" s="2" t="s">
+      <c r="K180" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L180" t="n">
@@ -5380,28 +5392,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s" s="2">
+      <c r="A182" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C182" t="s" s="2">
+      <c r="C182" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D182" t="s" s="2">
+      <c r="D182" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5426,28 +5438,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C184" t="s" s="2">
+      <c r="C184" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D184" t="s" s="2">
+      <c r="D184" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I184" t="s" s="2">
+      <c r="I184" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5535,10 +5547,10 @@
       <c r="I187">
         <f>((C187-C186)^2+(D187- D186)^2)^.5</f>
       </c>
-      <c r="J187" s="2" t="s">
+      <c r="J187" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K187" s="2" t="s">
+      <c r="K187" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L187" t="n">
@@ -5582,28 +5594,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="2">
+      <c r="A189" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C189" t="s" s="2">
+      <c r="C189" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D189" t="s" s="2">
+      <c r="D189" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5628,28 +5640,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C191" t="s" s="2">
+      <c r="C191" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D191" t="s" s="2">
+      <c r="D191" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I191" t="s" s="2">
+      <c r="I191" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5766,10 +5778,10 @@
       <c r="I195">
         <f>((C195-C194)^2+(D195- D194)^2)^.5</f>
       </c>
-      <c r="J195" s="2" t="s">
+      <c r="J195" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K195" s="2" t="s">
+      <c r="K195" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L195" t="n">
@@ -5813,28 +5825,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s" s="2">
+      <c r="A197" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C197" t="s" s="2">
+      <c r="C197" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D197" t="s" s="2">
+      <c r="D197" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5859,28 +5871,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C199" t="s" s="2">
+      <c r="C199" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D199" t="s" s="2">
+      <c r="D199" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I199" t="s" s="2">
+      <c r="I199" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5939,10 +5951,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="2" t="s">
+      <c r="J201" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K201" s="2" t="s">
+      <c r="K201" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
